--- a/biology/Botanique/Xanthosoma/Xanthosoma.xlsx
+++ b/biology/Botanique/Xanthosoma/Xanthosoma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Xanthosoma est un genre de plantes moncotylédones de la famille des Araceae originaire des Antilles. Certaines espèces de ce genre sont cultivées pour leur tubercules qui se consomment sous divers noms, tels que « malanga » ou « chou caraïbe », dans de nombreuses régions tropicales, dont les Antilles françaises. Les feuilles sont également consommées sous le nom d’« herbage ».
 </t>
@@ -511,7 +523,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Xanthosoma atrovirens K. Koch &amp; Bouché - Malanga gratté
 Xanthosoma brasiliense (Desf.) Engl.
@@ -551,6 +565,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
